--- a/רכבת/דוגמת אקסל לנתן .xlsx
+++ b/רכבת/דוגמת אקסל לנתן .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\רכבת\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\רכבת\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D60304-495B-46F6-9F7F-9036976F7AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B18F7-712E-407C-BF51-7A8ABC997327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t xml:space="preserve">אזור </t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">גלגל ענק </t>
   </si>
   <si>
-    <t xml:space="preserve">דורש תיקון (קל..) </t>
-  </si>
-  <si>
     <t xml:space="preserve">בתים </t>
   </si>
   <si>
@@ -75,27 +72,18 @@
     <t xml:space="preserve">אזור 6 </t>
   </si>
   <si>
-    <t xml:space="preserve">1(?) </t>
-  </si>
-  <si>
     <t>פנס רחוב</t>
   </si>
   <si>
     <t>מחסום</t>
   </si>
   <si>
-    <t>רמזור</t>
-  </si>
-  <si>
     <t>אזור 7</t>
   </si>
   <si>
     <t>מדורה</t>
   </si>
   <si>
-    <t>קיוסק</t>
-  </si>
-  <si>
     <t>פנסי רחוב בקיוסק</t>
   </si>
   <si>
@@ -105,18 +93,12 @@
     <t>רכבל</t>
   </si>
   <si>
-    <t>מנהרה</t>
-  </si>
-  <si>
     <t>מספר אלמנטים\יחידות</t>
   </si>
   <si>
     <t>מופעלים מספק (ים)</t>
   </si>
   <si>
-    <t xml:space="preserve">8 ו 9 </t>
-  </si>
-  <si>
     <t xml:space="preserve">קדימות (לפתיחה ? או לאחר כך ולמתי) </t>
   </si>
   <si>
@@ -132,14 +114,35 @@
     <t>2,6</t>
   </si>
   <si>
-    <t>3,1</t>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>תחנת דלק</t>
+  </si>
+  <si>
+    <t>בית שרוף</t>
+  </si>
+  <si>
+    <t>פנסי  פארק</t>
+  </si>
+  <si>
+    <t>פנסי חווה</t>
+  </si>
+  <si>
+    <t>רמזור מעבר חצייה</t>
+  </si>
+  <si>
+    <t>קישוט לד בקיוסק</t>
+  </si>
+  <si>
+    <t>לדים במנהרה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +184,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -207,6 +228,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,26 +525,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="17.8984375" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,239 +555,321 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="10">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2" t="s">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>29</v>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/רכבת/דוגמת אקסל לנתן .xlsx
+++ b/רכבת/דוגמת אקסל לנתן .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\רכבת\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\רכבת\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B18F7-712E-407C-BF51-7A8ABC997327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FEA393-4E9D-4AA3-8934-1829D372DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">אזור </t>
   </si>
@@ -75,9 +75,6 @@
     <t>פנס רחוב</t>
   </si>
   <si>
-    <t>מחסום</t>
-  </si>
-  <si>
     <t>אזור 7</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>לדים במנהרה</t>
+  </si>
+  <si>
+    <t>תחנת רכבת</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -231,9 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +242,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,26 +531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="17.8984375" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -555,49 +561,49 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -610,8 +616,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,8 +628,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -631,14 +637,14 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
@@ -646,228 +652,253 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D15" s="9">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D28" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+    <row r="33" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/רכבת/דוגמת אקסל לנתן .xlsx
+++ b/רכבת/דוגמת אקסל לנתן .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\רכבת\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\רכבת\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FEA393-4E9D-4AA3-8934-1829D372DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA8FF67-242D-4597-B4A1-31452843CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -228,9 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,13 +240,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,24 +530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="17.8984375" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -582,27 +579,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -616,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -628,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -640,7 +637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -652,19 +649,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -678,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
@@ -690,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>10</v>
@@ -702,43 +699,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>20</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
@@ -752,19 +749,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -777,18 +774,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
       <c r="B22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -801,7 +799,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
@@ -812,7 +811,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
       <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
@@ -823,13 +823,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -842,7 +842,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
       <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
@@ -853,7 +854,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
@@ -864,13 +866,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -883,7 +885,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -895,10 +898,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/רכבת/דוגמת אקסל לנתן .xlsx
+++ b/רכבת/דוגמת אקסל לנתן .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\רכבת\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\רכבת\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA8FF67-242D-4597-B4A1-31452843CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2CAE3-DC87-4769-A5C5-04B8198BDC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t xml:space="preserve">אזור </t>
   </si>
@@ -42,9 +42,6 @@
     <t>פנסי רחוב</t>
   </si>
   <si>
-    <t>בתים</t>
-  </si>
-  <si>
     <t>פנסי רכבת</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t xml:space="preserve">גלגל ענק </t>
   </si>
   <si>
-    <t xml:space="preserve">בתים </t>
-  </si>
-  <si>
     <t xml:space="preserve">אזור 4 </t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>תחנת דלק</t>
   </si>
   <si>
-    <t>בית שרוף</t>
-  </si>
-  <si>
     <t>פנסי  פארק</t>
   </si>
   <si>
@@ -136,6 +127,63 @@
   </si>
   <si>
     <t>תחנת רכבת</t>
+  </si>
+  <si>
+    <t>פנסי פארק</t>
+  </si>
+  <si>
+    <t>פנס צבעוני</t>
+  </si>
+  <si>
+    <t>מסלול רכבת מסתובב</t>
+  </si>
+  <si>
+    <t>פנסי חניית רכבת</t>
+  </si>
+  <si>
+    <t>בית שרוף תאורה</t>
+  </si>
+  <si>
+    <t>מפעלים תאורה</t>
+  </si>
+  <si>
+    <t>בתים תאורה</t>
+  </si>
+  <si>
+    <t>בתים סוף מסלול תאורה</t>
+  </si>
+  <si>
+    <t>אזור 2</t>
+  </si>
+  <si>
+    <t>אזור 1</t>
+  </si>
+  <si>
+    <t>מחסום</t>
+  </si>
+  <si>
+    <t>עדיפות 2</t>
+  </si>
+  <si>
+    <t>עדיפות 3</t>
+  </si>
+  <si>
+    <t>פנס לא  מחובר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">צריך לבנות תשתית לחשמל והכנת לדים </t>
+  </si>
+  <si>
+    <t>לא עובד</t>
+  </si>
+  <si>
+    <t>צריך להתקין את מערכת והכנת לחצן</t>
+  </si>
+  <si>
+    <t>הכנת לחצן</t>
+  </si>
+  <si>
+    <t>הכנת לחצן וקרוסלה בתיקון</t>
   </si>
 </sst>
 </file>
@@ -165,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +238,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -209,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -232,13 +274,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,6 +281,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,26 +569,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="17.8984375" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -558,354 +599,528 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E21" s="8">
+        <v>3</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E27" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3" t="s">
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="H31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="6" t="s">
+      <c r="F38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
         <v>9</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>9</v>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A26"/>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/רכבת/דוגמת אקסל לנתן .xlsx
+++ b/רכבת/דוגמת אקסל לנתן .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\רכבת\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2CAE3-DC87-4769-A5C5-04B8198BDC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B3BE0-6B81-4F71-B301-DFA8E8A993D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="datasheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t xml:space="preserve">אזור </t>
   </si>
@@ -184,6 +185,24 @@
   </si>
   <si>
     <t>הכנת לחצן וקרוסלה בתיקון</t>
+  </si>
+  <si>
+    <t>רכבת</t>
+  </si>
+  <si>
+    <t>כרטיס פיקוד רמזורים</t>
+  </si>
+  <si>
+    <t>מספר רכבות</t>
+  </si>
+  <si>
+    <t>מספר רמזורים</t>
+  </si>
+  <si>
+    <t>כרטיס ראשי</t>
+  </si>
+  <si>
+    <t>feedback</t>
   </si>
 </sst>
 </file>
@@ -251,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -280,13 +299,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,7 +643,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -638,7 +660,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
@@ -653,7 +675,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
@@ -764,7 +786,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -784,7 +806,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -802,7 +824,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -817,7 +839,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -832,7 +854,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
@@ -851,7 +873,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -866,7 +888,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
@@ -884,7 +906,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
@@ -899,7 +921,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -942,7 +964,7 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -959,7 +981,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1022,7 +1044,7 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1042,7 +1064,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1079,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
@@ -1125,4 +1147,59 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385736DC-03E8-4044-A0BE-FB37A6134A3E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>